--- a/Kofi and Brothers Company Limited.xlsx
+++ b/Kofi and Brothers Company Limited.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Ebere\Data Analytics\Projects\Other Projects\Kofi-and-Brothers-Company-Limited\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AA619B-DAF4-4FAA-9931-7C33623603F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="703" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="703" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bike_buyers" sheetId="1" r:id="rId1"/>
@@ -27,9 +28,9 @@
     <definedName name="Slicer_Commute_Distance">#N/A</definedName>
     <definedName name="Slicer_Purchased_Bike">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -41,16 +42,6 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -269,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
@@ -812,7 +803,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -826,7 +817,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -836,39 +826,26 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -892,7 +869,9 @@
     <xf numFmtId="1" fontId="0" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -939,902 +918,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="119">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <border>
         <left style="thin">
@@ -2275,6 +1359,185 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -2598,7 +1861,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2611,7 +1874,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Kofi and Brothers Company Limited - Sample 1.xlsx]Question 3!PivotTable3</c:name>
+    <c:name>[Kofi and Brothers Company Limited.xlsx]Question 3!PivotTable3</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -2642,7 +1905,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2724,6 +1986,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -2978,6 +2281,89 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3012,6 +2398,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2676-472A-A551-14A0B3687293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3027,6 +2418,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2676-472A-A551-14A0B3687293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3042,6 +2438,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2676-472A-A551-14A0B3687293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -3091,6 +2492,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2676-472A-A551-14A0B3687293}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3120,6 +2526,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-2676-472A-A551-14A0B3687293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3135,6 +2546,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-2676-472A-A551-14A0B3687293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3150,6 +2566,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-2676-472A-A551-14A0B3687293}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:multiLvlStrRef>
@@ -3199,6 +2620,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-2676-472A-A551-14A0B3687293}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3221,7 +2647,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3300,7 +2725,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3313,7 +2738,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Kofi and Brothers Company Limited - Sample 1.xlsx]Question 6!PivotTable6</c:name>
+    <c:name>[Kofi and Brothers Company Limited.xlsx]Question 6!PivotTable6</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -3333,6 +2758,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -3348,6 +2814,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -3424,6 +2931,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1246-4C92-91B2-428980A37268}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3478,6 +2990,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1246-4C92-91B2-428980A37268}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3609,7 +3126,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4806,7 +4322,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4866,27 +4388,20 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" b="0" i="0">
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="dk1"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Tahoma" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>As a data analyst, you were approached by the marketing manager of the company to help gain insights into their data. </a:t>
+            <a:t>As a data analyst, I will help the marketing manager of the company gain insights into their data.</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" b="0" i="0">
-            <a:solidFill>
-              <a:srgbClr val="36394D"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="Source Sans Pro"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" b="0" i="0">
               <a:solidFill>
@@ -5072,7 +4587,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5243,7 +4764,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5271,11 +4798,17 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Cars"/>
+            <xdr:cNvPr id="4" name="Cars">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -5289,7 +4822,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5343,11 +4876,17 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Commute Distance"/>
+            <xdr:cNvPr id="5" name="Commute Distance">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -5361,7 +4900,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5415,11 +4954,17 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="Purchased Bike"/>
+            <xdr:cNvPr id="7" name="Purchased Bike">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -5433,7 +4978,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -5494,7 +5039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5571,7 +5122,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5590,7 +5147,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="44935.530980902775" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1000">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44935.530980902775" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="1000" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -21761,7 +21318,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -21820,36 +21377,36 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="10" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="117">
+    <format dxfId="53">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="52">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="49">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -21879,12 +21436,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -21936,32 +21496,32 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="13" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="109">
+    <format dxfId="45">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="44">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="43">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="42">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0" selected="0"/>
@@ -21975,12 +21535,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="O2:Q9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -22092,7 +21655,7 @@
     <dataField name="Average of Income" fld="3" subtotal="average" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="64">
+    <format dxfId="37">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -22101,7 +21664,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -22110,7 +21673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -22119,7 +21682,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -22128,7 +21691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -22137,7 +21700,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -22146,7 +21709,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="1">
@@ -22155,39 +21718,39 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="30">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="23">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="22">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -22197,7 +21760,7 @@
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="10">
+  <chartFormats count="13">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -22330,18 +21893,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="1" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="12" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -22405,26 +22016,26 @@
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="101">
+    <format dxfId="21">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="19">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -22432,14 +22043,14 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="14">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -22448,12 +22059,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:B10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -22530,29 +22144,29 @@
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="93">
+    <format dxfId="13">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="10">
       <pivotArea field="13" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="6" count="0" selected="0"/>
@@ -22560,7 +22174,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="3">
           <reference field="2" count="0"/>
@@ -22569,7 +22183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
@@ -22582,12 +22196,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="F2:H5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -22652,7 +22269,7 @@
     </dataField>
   </dataFields>
   <formats count="5">
-    <format dxfId="84">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="5" count="1">
@@ -22664,20 +22281,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="3">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="13" count="0"/>
@@ -22749,12 +22366,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Cars" sourceName="Cars">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Cars" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Cars">
   <pivotTables>
     <pivotTable tabId="4" name="PivotTable3"/>
   </pivotTables>
@@ -22773,7 +22393,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Commute_Distance" sourceName="Commute Distance">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Commute_Distance" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="Commute Distance">
   <pivotTables>
     <pivotTable tabId="4" name="PivotTable3"/>
   </pivotTables>
@@ -22792,7 +22412,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Purchased_Bike" sourceName="Purchased Bike">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Purchased_Bike" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="Purchased Bike">
   <pivotTables>
     <pivotTable tabId="4" name="PivotTable3"/>
   </pivotTables>
@@ -22808,33 +22428,33 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Cars" cache="Slicer_Cars" caption="Cars" rowHeight="241300"/>
-  <slicer name="Commute Distance" cache="Slicer_Commute_Distance" caption="Commute Distance" rowHeight="241300"/>
-  <slicer name="Purchased Bike" cache="Slicer_Purchased_Bike" caption="Purchased Bike" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Cars" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Cars" caption="Cars" rowHeight="241300"/>
+  <slicer name="Commute Distance" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_Commute_Distance" caption="Commute Distance" rowHeight="241300"/>
+  <slicer name="Purchased Bike" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Purchased_Bike" caption="Purchased Bike" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N1001" totalsRowShown="0">
-  <autoFilter ref="A1:N1001"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:N1001" totalsRowShown="0">
+  <autoFilter ref="A1:N1001" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Married Status"/>
-    <tableColumn id="3" name="Gender"/>
-    <tableColumn id="4" name="Income" dataDxfId="118"/>
-    <tableColumn id="5" name="Children"/>
-    <tableColumn id="6" name="Education"/>
-    <tableColumn id="7" name="Occupation"/>
-    <tableColumn id="8" name="Home Owner"/>
-    <tableColumn id="9" name="Cars"/>
-    <tableColumn id="10" name="Commute Distance"/>
-    <tableColumn id="11" name="Region"/>
-    <tableColumn id="12" name="Age"/>
-    <tableColumn id="13" name="Age Bracket">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Married Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Gender"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Income" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Children"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Education"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Occupation"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Home Owner"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Cars"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Commute Distance"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Region"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Age"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Age Bracket">
       <calculatedColumnFormula>IF(L2&gt;54, "Old",IF(L2&gt;=31, "Middle Age",IF(L2&lt;31, "Adolescent", "Invalid")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Purchased Bike"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Purchased Bike"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23136,7 +22756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -68213,7 +67833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -68228,7 +67848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68242,32 +67862,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <f>ROUND(AVERAGEIF(bike_buyers!C:C,"Female",bike_buyers!D:D),0)</f>
         <v>54581</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -68275,42 +67891,42 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>54580.777096114522</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>39817.07317073171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>62008.36820083682</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>62093.023255813954</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>54580.777096114522</v>
       </c>
     </row>
@@ -68356,7 +67972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68370,29 +67986,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="16">
         <f>ROUND(AVERAGEIFS(Table2[Income],Table2[Gender],"Male",Table2[Purchased Bike],"No"),0)</f>
         <v>56208</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="41"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -68400,26 +68016,26 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>56208.178438661707</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15">
         <v>56208.178438661707</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>56208.178438661707</v>
       </c>
     </row>
@@ -68434,7 +68050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -68446,14 +68062,14 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="9" style="36" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="36" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="15" style="36" customWidth="1"/>
-    <col min="9" max="9" width="14" style="36" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="36" customWidth="1"/>
-    <col min="11" max="13" width="14.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="9" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="15" style="27" customWidth="1"/>
+    <col min="9" max="9" width="14" style="27" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="27" customWidth="1"/>
+    <col min="11" max="13" width="14.140625" style="27" customWidth="1"/>
     <col min="14" max="14" width="4" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="22.85546875" customWidth="1"/>
@@ -68469,68 +68085,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="O1" s="35" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="O1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-    </row>
-    <row r="2" spans="1:25" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+    </row>
+    <row r="2" spans="1:25" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="P2" s="3" t="s">
@@ -68560,7 +68176,7 @@
         <f>COUNTIFS(Table2[Age Bracket],"Adolescent",Table2[Purchased Bike],"No")</f>
         <v>71</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A3,Table2[Cars],0,Table2[Purchased Bike],"No")</f>
         <v>2</v>
       </c>
@@ -68568,45 +68184,45 @@
         <f>COUNTIFS(Table2[Age Bracket],"Adolescent",Table2[Purchased Bike],"Yes")</f>
         <v>39</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="17">
         <f>E3/B3</f>
         <v>0.35454545454545455</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="28">
         <f>ROUND(AVERAGEIF(Table2[Age Bracket],"Adolescent",Table2[Income]),0)</f>
         <v>33273</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="28">
         <f>ROUND(AVERAGEIFS(Table2[Income],Table2[Age Bracket],'Question 3'!A3,Table2[Purchased Bike],"No"),0)</f>
         <v>34648</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A3,Table2[Purchased Bike],"No",Table2[Commute Distance],"0-1 Miles")</f>
         <v>13</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A3,Table2[Purchased Bike],"No",Table2[Commute Distance],"1-2 Miles")</f>
         <v>12</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A3,Table2[Purchased Bike],"No",Table2[Commute Distance],"2-5 Miles")</f>
         <v>13</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A3,Table2[Purchased Bike],"No",Table2[Commute Distance],"5-10 Miles")</f>
         <v>32</v>
       </c>
-      <c r="M3" s="39">
+      <c r="M3" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A3,Table2[Purchased Bike],"No",Table2[Commute Distance],"10+ Miles")</f>
         <v>1</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="P3" s="22">
+      <c r="P3" s="19">
         <v>71</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="38">
         <v>34647.887323943665</v>
       </c>
     </row>
@@ -68622,7 +68238,7 @@
         <f>COUNTIFS(Table2[Age Bracket],"Middle Age",Table2[Purchased Bike],"No")</f>
         <v>318</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="30">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A4,Table2[Cars],0,Table2[Purchased Bike],"No")</f>
         <v>79</v>
       </c>
@@ -68634,41 +68250,41 @@
         <f>E4/B4</f>
         <v>0.54636233951497859</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="31">
         <f>ROUND(AVERAGEIF(Table2[Age Bracket],"Middle Age",Table2[Income]),0)</f>
         <v>59087</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="31">
         <f>ROUND(AVERAGEIFS(Table2[Income],Table2[Age Bracket],'Question 3'!A4,Table2[Purchased Bike],"No"),0)</f>
         <v>57075</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="30">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A4,Table2[Purchased Bike],"No",Table2[Commute Distance],"0-1 Miles")</f>
         <v>132</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="30">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A4,Table2[Purchased Bike],"No",Table2[Commute Distance],"1-2 Miles")</f>
         <v>64</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="30">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A4,Table2[Purchased Bike],"No",Table2[Commute Distance],"2-5 Miles")</f>
         <v>39</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="30">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A4,Table2[Purchased Bike],"No",Table2[Commute Distance],"5-10 Miles")</f>
         <v>54</v>
       </c>
-      <c r="M4" s="42">
+      <c r="M4" s="32">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A4,Table2[Purchased Bike],"No",Table2[Commute Distance],"10+ Miles")</f>
         <v>29</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="29">
+      <c r="O4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="3">
         <v>71</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="15">
         <v>34647.887323943665</v>
       </c>
     </row>
@@ -68684,7 +68300,7 @@
         <f>COUNTIFS(Table2[Age Bracket],"Old",Table2[Purchased Bike],"No")</f>
         <v>130</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A5,Table2[Cars],0,Table2[Purchased Bike],"No")</f>
         <v>15</v>
       </c>
@@ -68692,164 +68308,142 @@
         <f>COUNTIFS(Table2[Age Bracket],"Old",Table2[Purchased Bike],"Yes")</f>
         <v>59</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <f>E5/B5</f>
         <v>0.31216931216931215</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="28">
         <f>ROUND(AVERAGEIF(Table2[Age Bracket],"Old",Table2[Income]),0)</f>
         <v>59683</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="28">
         <f>ROUND(AVERAGEIFS(Table2[Income],Table2[Age Bracket],'Question 3'!A5,Table2[Purchased Bike],"No"),0)</f>
         <v>60538</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A5,Table2[Purchased Bike],"No",Table2[Commute Distance],"0-1 Miles")</f>
         <v>21</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A5,Table2[Purchased Bike],"No",Table2[Commute Distance],"1-2 Miles")</f>
         <v>16</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A5,Table2[Purchased Bike],"No",Table2[Commute Distance],"2-5 Miles")</f>
         <v>15</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A5,Table2[Purchased Bike],"No",Table2[Commute Distance],"5-10 Miles")</f>
         <v>30</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="29">
         <f>COUNTIFS(Table2[Age Bracket],'Question 3'!A5,Table2[Purchased Bike],"No",Table2[Commute Distance],"10+ Miles")</f>
         <v>48</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="21">
         <v>318</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="39">
         <v>57075.471698113208</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="29">
+      <c r="O6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="3">
         <v>318</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <v>57075.471698113208</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="23">
         <v>130</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="40">
         <v>60538.461538461539</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="P8" s="29">
+      <c r="O8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="3">
         <v>130</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="15">
         <v>60538.461538461539</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="3">
         <v>519</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="15">
         <v>54874.759152215796</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-    </row>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O1:Q1"/>
@@ -68869,7 +68463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68885,10 +68479,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -68900,21 +68494,21 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -68922,26 +68516,26 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="9">
         <v>23</v>
       </c>
     </row>
@@ -68956,7 +68550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -68972,39 +68566,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <f>COUNTIFS(Table2[Occupation],"Professional",Table2[Age Bracket],"Middle Age",Table2[Gender],"Male",Table2[Purchased Bike],"Yes")</f>
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -69012,34 +68603,34 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="3">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="9">
         <v>69</v>
       </c>
     </row>
@@ -69053,7 +68644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69074,17 +68665,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="F1" s="35" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="F1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -69099,10 +68690,10 @@
       <c r="D2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="3"/>
@@ -69123,7 +68714,7 @@
         <f>C3/B3</f>
         <v>0.54022988505747127</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -69149,24 +68740,24 @@
         <f>C4/B4</f>
         <v>0.44134078212290501</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="25">
         <v>0.45977011494252873</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="26">
         <v>0.54022988505747127</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="25">
         <v>0.55865921787709494</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="25">
         <v>0.44134078212290501</v>
       </c>
     </row>
